--- a/Projektmanagement/5CHIF-Aduno-Zeiterfassung.xlsx
+++ b/Projektmanagement/5CHIF-Aduno-Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8de322db93951f0c/!Schule/2021-22/SYP/Aduno/repo/Aduno/Projektmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{E2CB985B-1454-4D1A-9287-9DA6530BCE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218A47C6-EE1E-4F10-AC89-E2CADBAAE2A0}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{E2CB985B-1454-4D1A-9287-9DA6530BCE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50451B3-1C2B-4758-B307-3D48644CA131}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DA7DF6DD-4755-409F-BAAF-1F3A48B58050}"/>
+    <workbookView xWindow="2205" yWindow="2925" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{DA7DF6DD-4755-409F-BAAF-1F3A48B58050}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="74">
   <si>
     <t>ADUNO</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Create mockup for presencelist design; Prepare zeiterfassung excel sheet</t>
+  </si>
+  <si>
+    <t>Create sequence diagrams for setup (Erstanmeldung Schüler) &amp; login, activity diagram for setup, component diagram (front- &amp; backend) and ERD for new data model</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="G7" s="17">
         <f>'Rausch-Schott'!G25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="17">
         <f>Siegl!G25</f>
@@ -1250,7 +1253,7 @@
       </c>
       <c r="I7" s="17">
         <f>SUM(E7:H7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="16">
         <v>50.25</v>
@@ -1924,7 +1927,7 @@
       </c>
       <c r="G37" s="44">
         <f>SUM(G4:G36)</f>
-        <v>2.7500000000000009</v>
+        <v>5.7500000000000009</v>
       </c>
       <c r="H37" s="44">
         <f>SUM(H4:H36)</f>
@@ -1932,7 +1935,7 @@
       </c>
       <c r="I37" s="47">
         <f>SUM(E37:H37)</f>
-        <v>2.7500000000000009</v>
+        <v>5.7500000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -16066,8 +16069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B4D20-BB0D-47D6-9AD7-DFFCD9EC26AD}">
   <dimension ref="A1:G354"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -16419,11 +16422,11 @@
       </c>
       <c r="F25" s="14">
         <f>SUM(F27:F46)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G25" s="15">
         <f>F25*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -16450,13 +16453,21 @@
       <c r="A27" s="2">
         <v>1</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
+      <c r="B27" s="5">
+        <v>44831</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F27" s="9">
         <f t="shared" ref="F27:F33" si="1">MOD(D27-C27,1)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
